--- a/ImportServer.xlsx
+++ b/ImportServer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6404E-14D1-460D-ACE1-67C60844D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0850E2D-8BF2-4904-A178-A3DF56EB8B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,18 +26,12 @@
     <t>online</t>
   </si>
   <si>
-    <t>192.168.1.4</t>
-  </si>
-  <si>
     <t>cd9qdocmr0dgea58osog</t>
   </si>
   <si>
     <t>server2</t>
   </si>
   <si>
-    <t>192.168.1.5</t>
-  </si>
-  <si>
     <t>cd9qdscmr0dgea58osp0</t>
   </si>
   <si>
@@ -47,18 +41,12 @@
     <t>offline</t>
   </si>
   <si>
-    <t>192.168.1.6</t>
-  </si>
-  <si>
     <t>cd9qgh4mr0dgea58ospg</t>
   </si>
   <si>
     <t>server6</t>
   </si>
   <si>
-    <t>192.168.1.7</t>
-  </si>
-  <si>
     <t>cd9s8a4mr0dl255231j0</t>
   </si>
   <si>
@@ -93,6 +81,18 @@
   </si>
   <si>
     <t>192.168.2.6</t>
+  </si>
+  <si>
+    <t>192.168.2.14</t>
+  </si>
+  <si>
+    <t>192.168.2.5</t>
+  </si>
+  <si>
+    <t>192.168.2.16</t>
+  </si>
+  <si>
+    <t>192.168.2.7</t>
   </si>
 </sst>
 </file>
@@ -404,15 +404,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,129 +425,153 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>1234.6780000000001</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>124.678</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>124.678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4">
+        <v>1234.6780000000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1234.6780000000001</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1234.6780000000001</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1234.6780000000001</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1234.6780000000001</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
